--- a/biology/Botanique/Crambe_(plante)/Crambe_(plante).xlsx
+++ b/biology/Botanique/Crambe_(plante)/Crambe_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crambe est un genre comportant une vingtaine d'espèces de plantes florales annuelles et vivaces de la famille des Brassicaceae, native de divers habitats en Europe, Turquie, Asie de l'Ouest et centrale et Afrique de l'Est. Elles portent de denses grappes de petites fleurs blanches ou jaunes sur des tiges (le plus souvent sans feuilles) au-dessus des feuilles basales[2].
-Le mot « crambe » est, par le biais du latin crambe, dérivé du grec κράμβη, une sorte de chou[3].
-Les espèces du genre Crambe sont utilisées comme plantes alimentaires par les larves de Lixus canescens (une espèce de Coléoptères)[4] et de certains lépidoptères, dont l'eupithécie des centaurées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crambe est un genre comportant une vingtaine d'espèces de plantes florales annuelles et vivaces de la famille des Brassicaceae, native de divers habitats en Europe, Turquie, Asie de l'Ouest et centrale et Afrique de l'Est. Elles portent de denses grappes de petites fleurs blanches ou jaunes sur des tiges (le plus souvent sans feuilles) au-dessus des feuilles basales.
+Le mot « crambe » est, par le biais du latin crambe, dérivé du grec κράμβη, une sorte de chou.
+Les espèces du genre Crambe sont utilisées comme plantes alimentaires par les larves de Lixus canescens (une espèce de Coléoptères) et de certains lépidoptères, dont l'eupithécie des centaurées.
 Le Crambe d'Abyssinie (C. abyssinica) est cultivé pour l'huile extraite de ses graines (appelée « huile végétale d'Abyssinie ») et présentant des caractéristiques proches de l'huile de baleine. Le Crambe maritime ou chou marin (C. maritima), est une plante halophyte parfois utilisée comme légume-feuille.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (12 août 2016)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (12 août 2016) :
 Crambe alutacea Hand.-Mazz.
 Crambe amabilis Butk. &amp; Majlun
 Crambe arborea Webb ex Christ
